--- a/Assets/Table/StructUnitTable.xlsx
+++ b/Assets/Table/StructUnitTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruen\Desktop\Projects\DefenceGame\Assets\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aruen\Desktop\Projects\4PointDefence\4PointDefence\Assets\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1C879D-771E-476E-A0BC-8C23CBBAAA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D45A0B-AFAA-4B2F-8B9E-1526F3D1E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2655" yWindow="4635" windowWidth="22590" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>1</v>
